--- a/hz-back/src/main/resources/excel/贷后跟踪-银行部公司类.xlsx
+++ b/hz-back/src/main/resources/excel/贷后跟踪-银行部公司类.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8508" windowHeight="4536"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
   </bookViews>
   <sheets>
-    <sheet name="现场检查工作表" sheetId="2" r:id="rId1"/>
+    <sheet name="贷后检查表" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -327,7 +327,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>惠州农商银行银行部现场检查工作表</t>
+    <t>惠州农商银行贷后检查表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,6 +585,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -612,86 +690,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,605 +990,607 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.09765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" customWidth="1"/>
-    <col min="4" max="4" width="2.69921875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="3.19921875" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" customWidth="1"/>
-    <col min="7" max="7" width="24.69921875" customWidth="1"/>
-    <col min="8" max="8" width="4.19921875" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="3.25" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="8" max="8" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="28.5" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="44"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="44"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="48.75" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="42"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="32.25" customHeight="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="44.25" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
     </row>
     <row r="28" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="20"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="35"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="20"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="35"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="20"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="35"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="20"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="38"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="20"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="35"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="20"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="35"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" ht="30" customHeight="1">
-      <c r="A36" s="20"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="35"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="20"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="35"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="20"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="38"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="33"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
     </row>
     <row r="41" spans="1:9" ht="44.25" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:9" ht="42" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:9" ht="24" customHeight="1">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="13"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="16"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="42"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="16"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="42"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="16"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="42"/>
     </row>
     <row r="48" spans="1:9" ht="81" customHeight="1">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="19"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="45"/>
     </row>
     <row r="49" spans="1:8" ht="18.75" customHeight="1">
       <c r="A49" s="7" t="s">
@@ -1604,16 +1606,13 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A44:H48"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="A43:I43"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B17:H22"/>
@@ -1628,13 +1627,16 @@
     <mergeCell ref="B33:H39"/>
     <mergeCell ref="B9:H12"/>
     <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A44:H48"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/hz-back/src/main/resources/excel/贷后跟踪-银行部公司类.xlsx
+++ b/hz-back/src/main/resources/excel/贷后跟踪-银行部公司类.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DF390B-558D-430B-AA29-84A1734D209B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
+    <workbookView xWindow="600" yWindow="1455" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="贷后检查表" sheetId="2" r:id="rId1"/>
@@ -334,8 +335,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -585,6 +586,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -592,12 +680,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -611,87 +693,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,11 +700,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -745,7 +754,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -777,9 +786,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -811,6 +838,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -986,15 +1031,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.875" style="3" customWidth="1"/>
@@ -1006,593 +1051,593 @@
     <col min="8" max="8" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="30" customHeight="1">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.5" customHeight="1">
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="H5" s="43"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" ht="48.75" customHeight="1">
+      <c r="H6" s="43"/>
+    </row>
+    <row r="7" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="39"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="39"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="26"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="26"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="44.25" customHeight="1">
+    <row r="15" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-    </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="34" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="20"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="20"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33"/>
+    <row r="22" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="20"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="34" t="s">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="34"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="20"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="20"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="34"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="20"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A27" s="46" t="s">
+    <row r="27" spans="1:9" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-    </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="34" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="32"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="20"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="35"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="20"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="34"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="20"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="35"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="34"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="20"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="32"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="30"/>
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="20"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="35"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="30"/>
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="20"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="35"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" ht="30" customHeight="1">
-      <c r="A36" s="34"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="30"/>
+    <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="20"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="35"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30"/>
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="20"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="34"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="20"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="35"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="34"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33"/>
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="20"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A40" s="35" t="s">
+    <row r="40" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-    </row>
-    <row r="41" spans="1:9" ht="44.25" customHeight="1">
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="42" spans="1:9" ht="42" customHeight="1">
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+    </row>
+    <row r="42" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-    </row>
-    <row r="43" spans="1:9" ht="24" customHeight="1">
-      <c r="A43" s="35" t="s">
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="37" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="39"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="40"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="42"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="40"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="42"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="40"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="42"/>
-    </row>
-    <row r="48" spans="1:9" ht="81" customHeight="1">
-      <c r="A48" s="43"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="45"/>
-    </row>
-    <row r="49" spans="1:8" ht="18.75" customHeight="1">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="16"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="16"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="16"/>
+    </row>
+    <row r="48" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="19"/>
+    </row>
+    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
         <v>10</v>
       </c>
@@ -1606,13 +1651,16 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A44:H48"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B17:H22"/>
@@ -1627,16 +1675,13 @@
     <mergeCell ref="B33:H39"/>
     <mergeCell ref="B9:H12"/>
     <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A44:H48"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="A43:I43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
